--- a/data/trans_orig/P45D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45D-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>44090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32695</v>
+        <v>31647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59093</v>
+        <v>58824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04451465585953923</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03301015022510684</v>
+        <v>0.03195234164104439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05966285525093434</v>
+        <v>0.05939066502739269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         <v>17927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10134</v>
+        <v>10504</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>28611</v>
@@ -773,10 +773,10 @@
         <v>0.01403683729770521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007934829923571973</v>
+        <v>0.008224797631459283</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02240250683441815</v>
+        <v>0.02240300804844808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -785,19 +785,19 @@
         <v>62017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47594</v>
+        <v>46876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80601</v>
+        <v>80256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02734920123711096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0209890107928733</v>
+        <v>0.02067215917193866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03554493518661193</v>
+        <v>0.03539282520422823</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>77106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60842</v>
+        <v>60928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96517</v>
+        <v>95765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07784936937339353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06142805874251204</v>
+        <v>0.06151544307777187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09744724662925913</v>
+        <v>0.09668809633646426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -835,19 +835,19 @@
         <v>37918</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27465</v>
+        <v>26921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51416</v>
+        <v>51730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02968969119681347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02150528525847774</v>
+        <v>0.02107920452663157</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04025922441487545</v>
+        <v>0.0405049274984609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -856,19 +856,19 @@
         <v>115024</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94778</v>
+        <v>96132</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137557</v>
+        <v>137034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05072528998124008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04179706409509129</v>
+        <v>0.04239387789685694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06066240477641827</v>
+        <v>0.06043197151912465</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>154265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129590</v>
+        <v>131447</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>176678</v>
+        <v>176430</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1557515807301433</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1308387343436283</v>
+        <v>0.1327144830880205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1783807498764048</v>
+        <v>0.178130297989636</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -906,19 +906,19 @@
         <v>57329</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42112</v>
+        <v>42865</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72522</v>
+        <v>73925</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0448893238070403</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03297397370409302</v>
+        <v>0.03356365051017315</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05678508474511879</v>
+        <v>0.05788393561704237</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>208</v>
@@ -927,19 +927,19 @@
         <v>211594</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>186844</v>
+        <v>183505</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>242293</v>
+        <v>239588</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09331269466969049</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08239799293203104</v>
+        <v>0.08092557202111167</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1068506802139671</v>
+        <v>0.1056580644589408</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>305257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>274498</v>
+        <v>278836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>333461</v>
+        <v>335647</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.308199583996513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.277143937474285</v>
+        <v>0.2815238388897021</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3366757146828029</v>
+        <v>0.3388826516746321</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>395</v>
@@ -977,19 +977,19 @@
         <v>394291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>363192</v>
+        <v>363191</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>428820</v>
+        <v>429392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3087328876549106</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2843818690916029</v>
+        <v>0.2843812996125861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3357690836339903</v>
+        <v>0.336216916265463</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>704</v>
@@ -998,19 +998,19 @@
         <v>699549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>655512</v>
+        <v>657783</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>739865</v>
+        <v>742139</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3084999466924069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.289079911022474</v>
+        <v>0.2900815044520226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3262792817354485</v>
+        <v>0.3272820451421682</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>211357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>186525</v>
+        <v>185716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>237179</v>
+        <v>237909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2133943553620762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1883226855195209</v>
+        <v>0.1875064434530211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2394647513012165</v>
+        <v>0.2402022704450211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -1048,19 +1048,19 @@
         <v>393483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>362775</v>
+        <v>363349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>427350</v>
+        <v>426814</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3081002618511194</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2840554026366814</v>
+        <v>0.2845049286178931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3346183821925033</v>
+        <v>0.3341986820520307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -1069,19 +1069,19 @@
         <v>604840</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>562366</v>
+        <v>564834</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>647422</v>
+        <v>647470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2667338008022219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2480025531473679</v>
+        <v>0.2490909255808667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2855121071120251</v>
+        <v>0.2855332310215411</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>198378</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174616</v>
+        <v>175957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>221874</v>
+        <v>222980</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2002904546783346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.176299164068974</v>
+        <v>0.1776534523666254</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2240124144668487</v>
+        <v>0.2251295976161764</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>363</v>
@@ -1119,19 +1119,19 @@
         <v>376179</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>346082</v>
+        <v>342690</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>412676</v>
+        <v>411355</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.294550998192411</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2709848884649644</v>
+        <v>0.2683287398141931</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3231285051986649</v>
+        <v>0.3220942513980081</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>567</v>
@@ -1140,19 +1140,19 @@
         <v>574558</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>539238</v>
+        <v>536356</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>615687</v>
+        <v>620227</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2533790666173296</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2378030519021335</v>
+        <v>0.236532371332765</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2715173007966581</v>
+        <v>0.2735190836430325</v>
       </c>
     </row>
     <row r="10">
@@ -1244,19 +1244,19 @@
         <v>44849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33086</v>
+        <v>33587</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58798</v>
+        <v>60496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02714474420911187</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02002507184421974</v>
+        <v>0.02032814404363507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03558703059986163</v>
+        <v>0.03661486223446982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1265,19 +1265,19 @@
         <v>17049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10073</v>
+        <v>10586</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26540</v>
+        <v>28407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01087418834065646</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006424654147226017</v>
+        <v>0.006752417416013143</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0169281312284245</v>
+        <v>0.01811915792476329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -1286,19 +1286,19 @@
         <v>61898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48501</v>
+        <v>48737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79247</v>
+        <v>80119</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01922276598790127</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01506233406141883</v>
+        <v>0.01513558775274582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02461071566242207</v>
+        <v>0.02488135482758437</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>147417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125403</v>
+        <v>126507</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>169963</v>
+        <v>173455</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08922339842861353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07589949510656126</v>
+        <v>0.07656793741629839</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.102868868040692</v>
+        <v>0.1049826460951809</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -1336,19 +1336,19 @@
         <v>89326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71769</v>
+        <v>72724</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109031</v>
+        <v>110800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05697515876842749</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04577659701562083</v>
+        <v>0.04638621851088914</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06954414497638048</v>
+        <v>0.070672449698958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>230</v>
@@ -1357,19 +1357,19 @@
         <v>236743</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>207966</v>
+        <v>208968</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>269089</v>
+        <v>270448</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07352203860256931</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0645852939347006</v>
+        <v>0.06489627757538512</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08356740183032695</v>
+        <v>0.0839893762443395</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>280495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252342</v>
+        <v>253924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>313603</v>
+        <v>312767</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1697683100916537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1527288349291844</v>
+        <v>0.1536863814758801</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1898065889863201</v>
+        <v>0.1893007728092442</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -1407,19 +1407,19 @@
         <v>138202</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117158</v>
+        <v>116783</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161869</v>
+        <v>162464</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08815034567982015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07472779702855904</v>
+        <v>0.07448873701412338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1032462120315252</v>
+        <v>0.1036254839684937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>404</v>
@@ -1428,19 +1428,19 @@
         <v>418697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>379489</v>
+        <v>381329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>460713</v>
+        <v>458452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1300293029085224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1178528065145578</v>
+        <v>0.1184241899147502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1430773696756549</v>
+        <v>0.1423753032284795</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>595802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>557918</v>
+        <v>556571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>638812</v>
+        <v>636153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3606056488520202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3376767804788413</v>
+        <v>0.336861578727029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3866375891985477</v>
+        <v>0.3850279629326734</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>567</v>
@@ -1478,19 +1478,19 @@
         <v>571357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>536459</v>
+        <v>534880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>613722</v>
+        <v>609149</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3644323410642434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3421730602942405</v>
+        <v>0.3411660899920476</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3914544975232022</v>
+        <v>0.3885376144246538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1150</v>
@@ -1499,19 +1499,19 @@
         <v>1167158</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1109317</v>
+        <v>1112148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1218020</v>
+        <v>1223458</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3624688287341091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3445056639098901</v>
+        <v>0.345385007179364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3782641266531129</v>
+        <v>0.3799531784571843</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>371004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>337897</v>
+        <v>340362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>406575</v>
+        <v>407129</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2245483171774142</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2045103806112412</v>
+        <v>0.2060021701459303</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2460770573802579</v>
+        <v>0.2464127138792862</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>449</v>
@@ -1549,19 +1549,19 @@
         <v>457465</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>420256</v>
+        <v>421477</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>492687</v>
+        <v>495811</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2917880445166283</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2680550876271085</v>
+        <v>0.2688336603790126</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3142539760204179</v>
+        <v>0.3162466105009849</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>809</v>
@@ -1570,19 +1570,19 @@
         <v>828469</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>776745</v>
+        <v>778997</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>880058</v>
+        <v>880997</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.257286698083878</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2412232140844183</v>
+        <v>0.2419228009829846</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.273308042350128</v>
+        <v>0.273599422147558</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>212657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186463</v>
+        <v>186082</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242889</v>
+        <v>243064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1287095812411865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1128554547109215</v>
+        <v>0.1126249945948455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1470075097760211</v>
+        <v>0.147113178956479</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>286</v>
@@ -1620,19 +1620,19 @@
         <v>294401</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>261791</v>
+        <v>265066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326154</v>
+        <v>326665</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1877799216302242</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1669801129818701</v>
+        <v>0.1690686288969564</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2080329570751469</v>
+        <v>0.208359065612192</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>488</v>
@@ -1641,19 +1641,19 @@
         <v>507058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>467767</v>
+        <v>468187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>547999</v>
+        <v>548679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1574703656830199</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1452680888035775</v>
+        <v>0.1453985268818339</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.170184719824522</v>
+        <v>0.1703959983194127</v>
       </c>
     </row>
     <row r="17">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9981</v>
+        <v>11249</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005085712690437987</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01861871723027858</v>
+        <v>0.02098405225869227</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10280</v>
+        <v>11345</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002714587634689646</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01023586318834314</v>
+        <v>0.01129669896744081</v>
       </c>
     </row>
     <row r="19">
@@ -1808,19 +1808,19 @@
         <v>25941</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17372</v>
+        <v>18018</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37781</v>
+        <v>37306</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04839187732534395</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03240657127928153</v>
+        <v>0.03361168233346516</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0704776722240487</v>
+        <v>0.0695927738301992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1829,19 +1829,19 @@
         <v>5104</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1470</v>
+        <v>2018</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11009</v>
+        <v>11673</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01090001033660958</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003140058238275503</v>
+        <v>0.004309617455173652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02351099209051577</v>
+        <v>0.02493007572658582</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -1850,19 +1850,19 @@
         <v>31045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21343</v>
+        <v>22608</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43283</v>
+        <v>43186</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03091194666175858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02125106991042143</v>
+        <v>0.02251064329291126</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04309718819340402</v>
+        <v>0.04300064995915723</v>
       </c>
     </row>
     <row r="20">
@@ -1879,19 +1879,19 @@
         <v>51943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38579</v>
+        <v>38528</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67532</v>
+        <v>68318</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09689660385952581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07196607137081351</v>
+        <v>0.07187058474183908</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1259756773233406</v>
+        <v>0.1274435145631627</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1900,19 +1900,19 @@
         <v>30981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21607</v>
+        <v>21052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44384</v>
+        <v>44665</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0661653067267071</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04614441260909879</v>
+        <v>0.04496063359959904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09478808393683973</v>
+        <v>0.09538876101843653</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -1921,19 +1921,19 @@
         <v>82924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66227</v>
+        <v>66745</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101182</v>
+        <v>102052</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08256867126430126</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0659429463780459</v>
+        <v>0.06645828463990976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1007481215657231</v>
+        <v>0.1016137292843621</v>
       </c>
     </row>
     <row r="21">
@@ -1950,19 +1950,19 @@
         <v>220232</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>195373</v>
+        <v>198354</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242870</v>
+        <v>246157</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4108290698344995</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.364455180610483</v>
+        <v>0.3700161797995343</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4530586198401485</v>
+        <v>0.4591895503646165</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>164</v>
@@ -1971,19 +1971,19 @@
         <v>170002</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>148693</v>
+        <v>148558</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>189793</v>
+        <v>191981</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3630649337198689</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3175564851834066</v>
+        <v>0.317266843841021</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4053319757135478</v>
+        <v>0.4100034171172469</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>375</v>
@@ -1992,19 +1992,19 @@
         <v>390234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>361419</v>
+        <v>359477</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>423484</v>
+        <v>425552</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3885598724178791</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.359868772798684</v>
+        <v>0.3579350662962815</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4216668260945421</v>
+        <v>0.4237265677760291</v>
       </c>
     </row>
     <row r="22">
@@ -2021,19 +2021,19 @@
         <v>127477</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109741</v>
+        <v>107879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148174</v>
+        <v>149138</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2377991382426227</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2047148298394736</v>
+        <v>0.2012415370775876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2764085501886567</v>
+        <v>0.2782081564721569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -2042,19 +2042,19 @@
         <v>147095</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126381</v>
+        <v>127161</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>165956</v>
+        <v>167976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3141421605338863</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2699043998674681</v>
+        <v>0.2715708672248272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3544239684273979</v>
+        <v>0.3587379581571273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>264</v>
@@ -2063,19 +2063,19 @@
         <v>274571</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>245819</v>
+        <v>246418</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>301555</v>
+        <v>304621</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2733927440958821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2447638831115785</v>
+        <v>0.2453602699695607</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3002611029646351</v>
+        <v>0.3033136299567145</v>
       </c>
     </row>
     <row r="23">
@@ -2092,19 +2092,19 @@
         <v>107748</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>89892</v>
+        <v>89776</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129232</v>
+        <v>128732</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2009975980475701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1676883187031103</v>
+        <v>0.1674715186186753</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2410740113938971</v>
+        <v>0.2401407363001198</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>109</v>
@@ -2113,19 +2113,19 @@
         <v>115060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>97033</v>
+        <v>96637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>135585</v>
+        <v>135148</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2457275886829281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2072279599387769</v>
+        <v>0.2063825046223143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2895621641663092</v>
+        <v>0.2886288416963754</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>208</v>
@@ -2134,19 +2134,19 @@
         <v>222808</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>197546</v>
+        <v>196232</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>250627</v>
+        <v>253186</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2218521779254892</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1966980850076122</v>
+        <v>0.1953900442485708</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2495512022070236</v>
+        <v>0.2520992708885094</v>
       </c>
     </row>
     <row r="24">
@@ -2238,19 +2238,19 @@
         <v>91665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73271</v>
+        <v>73843</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111844</v>
+        <v>114134</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02883690680247086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02305029014810748</v>
+        <v>0.02323023412002319</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03518506381289388</v>
+        <v>0.03590520869080869</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2259,19 +2259,19 @@
         <v>34975</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24449</v>
+        <v>24649</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01055647295806115</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007379312753223751</v>
+        <v>0.00743983195529471</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01518183873330294</v>
+        <v>0.01503084630053488</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>118</v>
@@ -2280,19 +2280,19 @@
         <v>126641</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101346</v>
+        <v>105853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150630</v>
+        <v>151110</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01950743210592186</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01561116729654193</v>
+        <v>0.01630538350872102</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02320270165386845</v>
+        <v>0.0232767099640713</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>250465</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>220926</v>
+        <v>220624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>283340</v>
+        <v>282525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07879352978192487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0695008838495887</v>
+        <v>0.0694058497345454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08913584771404193</v>
+        <v>0.08887948939394677</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>127</v>
@@ -2330,19 +2330,19 @@
         <v>132347</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108907</v>
+        <v>111710</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155919</v>
+        <v>156743</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03994573931180028</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0328708255079901</v>
+        <v>0.03371687457870512</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04706045310778543</v>
+        <v>0.04730921951759453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>371</v>
@@ -2351,19 +2351,19 @@
         <v>382812</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>346103</v>
+        <v>346775</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>421485</v>
+        <v>423629</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05896744243123007</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05331292486025496</v>
+        <v>0.05341650686259035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06492465956390193</v>
+        <v>0.06525479440462763</v>
       </c>
     </row>
     <row r="27">
@@ -2380,19 +2380,19 @@
         <v>486703</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>447591</v>
+        <v>443215</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>531604</v>
+        <v>526578</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1531117161423594</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1408074767142548</v>
+        <v>0.1394308506428434</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1672369967528128</v>
+        <v>0.1656559213455006</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>214</v>
@@ -2401,19 +2401,19 @@
         <v>226513</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>197430</v>
+        <v>197580</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>257116</v>
+        <v>256933</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06836742265462374</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05958946099348904</v>
+        <v>0.05963478009016471</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07760434745455409</v>
+        <v>0.07754899595697953</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>688</v>
@@ -2422,19 +2422,19 @@
         <v>713216</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>664959</v>
+        <v>668273</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>768701</v>
+        <v>765130</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1098622096755023</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1024288405265982</v>
+        <v>0.1029392778219974</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1184089587249664</v>
+        <v>0.1178588600307545</v>
       </c>
     </row>
     <row r="28">
@@ -2451,19 +2451,19 @@
         <v>1121291</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1060059</v>
+        <v>1071021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1173477</v>
+        <v>1175917</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3527463815720481</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3334835144439628</v>
+        <v>0.3369320179952505</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3691634838536206</v>
+        <v>0.3699310361235627</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1126</v>
@@ -2472,19 +2472,19 @@
         <v>1135650</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1083556</v>
+        <v>1085778</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1196726</v>
+        <v>1195514</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3427686129631978</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3270452463285829</v>
+        <v>0.3277160179080955</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3612027982462587</v>
+        <v>0.3608371123092303</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2229</v>
@@ -2493,19 +2493,19 @@
         <v>2256941</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2187887</v>
+        <v>2182919</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2338008</v>
+        <v>2335032</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3476541971875535</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3370172918712753</v>
+        <v>0.3362519387192376</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3601415253661522</v>
+        <v>0.3596830877988181</v>
       </c>
     </row>
     <row r="29">
@@ -2522,19 +2522,19 @@
         <v>709838</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>666658</v>
+        <v>660229</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>762612</v>
+        <v>758165</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2233075313372596</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2097234720825674</v>
+        <v>0.207700987041058</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2399097533851617</v>
+        <v>0.2385106513282128</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>976</v>
@@ -2543,19 +2543,19 @@
         <v>998043</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>949135</v>
+        <v>942570</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1051734</v>
+        <v>1044829</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3012351689737817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2864734784798549</v>
+        <v>0.2844920656680966</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3174406929085281</v>
+        <v>0.3153563959844653</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1677</v>
@@ -2564,19 +2564,19 @@
         <v>1707881</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1639300</v>
+        <v>1639998</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1785571</v>
+        <v>1781636</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2630781368753826</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2525140923982321</v>
+        <v>0.2526216795382283</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2750453931254725</v>
+        <v>0.2744391858029844</v>
       </c>
     </row>
     <row r="30">
@@ -2593,19 +2593,19 @@
         <v>518784</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>475976</v>
+        <v>476942</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>563080</v>
+        <v>560799</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1632039343639372</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1497369120206095</v>
+        <v>0.1500410520343926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1771389707101527</v>
+        <v>0.1764214907380621</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>758</v>
@@ -2614,19 +2614,19 @@
         <v>785640</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>736370</v>
+        <v>738717</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>839550</v>
+        <v>833999</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2371265831385353</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2222556655587473</v>
+        <v>0.2229640675271446</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2533978498266604</v>
+        <v>0.2517224590320828</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1263</v>
@@ -2635,19 +2635,19 @@
         <v>1304424</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1242967</v>
+        <v>1242409</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1369697</v>
+        <v>1373495</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2009305817244097</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1914638269791331</v>
+        <v>0.1913779566534789</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2109851123090258</v>
+        <v>0.2115701587759911</v>
       </c>
     </row>
     <row r="31">
@@ -2978,19 +2978,19 @@
         <v>69562</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53703</v>
+        <v>53022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87678</v>
+        <v>87926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07314203041684765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05646681147567187</v>
+        <v>0.05575091346658716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09219049118460974</v>
+        <v>0.09245127850367806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2999,19 +2999,19 @@
         <v>41409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29560</v>
+        <v>30402</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55126</v>
+        <v>55758</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03249214504209422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02319463979908328</v>
+        <v>0.02385575611524406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04325540295227299</v>
+        <v>0.04375140111456434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -3020,19 +3020,19 @@
         <v>110971</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90403</v>
+        <v>90839</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132019</v>
+        <v>133577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04986381439702718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04062203694830526</v>
+        <v>0.04081785731571241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05932186179327877</v>
+        <v>0.06002182024251729</v>
       </c>
     </row>
     <row r="5">
@@ -3049,19 +3049,19 @@
         <v>150653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128032</v>
+        <v>127690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175596</v>
+        <v>176444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1584066598421642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1346217542956667</v>
+        <v>0.1342614665316195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1846333113160118</v>
+        <v>0.1855245502138554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -3070,19 +3070,19 @@
         <v>107102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88360</v>
+        <v>87641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129709</v>
+        <v>127705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08404003684986792</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06933337045942692</v>
+        <v>0.06876923988230221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1017784989634177</v>
+        <v>0.1002064661902814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>242</v>
@@ -3091,19 +3091,19 @@
         <v>257756</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>227945</v>
+        <v>229224</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>290178</v>
+        <v>289673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1158205049558733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1024252324439238</v>
+        <v>0.1029999000097147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1303894503628119</v>
+        <v>0.1301622379698857</v>
       </c>
     </row>
     <row r="6">
@@ -3120,19 +3120,19 @@
         <v>155673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>133842</v>
+        <v>135256</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>179394</v>
+        <v>180123</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1636853256881509</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1407298835948743</v>
+        <v>0.14221709266155</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1886269896450037</v>
+        <v>0.1893935514083268</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -3141,19 +3141,19 @@
         <v>121584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102058</v>
+        <v>100316</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>143870</v>
+        <v>142944</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09540324059448119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08008158859580604</v>
+        <v>0.07871484919670999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1128905115531466</v>
+        <v>0.1121641548667049</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>261</v>
@@ -3162,19 +3162,19 @@
         <v>277257</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>248346</v>
+        <v>246859</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>315150</v>
+        <v>309475</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1245834902846643</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1115922622391681</v>
+        <v>0.1109239901491124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1416102746542416</v>
+        <v>0.1390600851702369</v>
       </c>
     </row>
     <row r="7">
@@ -3191,19 +3191,19 @@
         <v>190129</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>165734</v>
+        <v>165795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>214880</v>
+        <v>217842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1999140434590795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1742631701748948</v>
+        <v>0.1743273713088783</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2259392814954888</v>
+        <v>0.2290538974699706</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>251</v>
@@ -3212,19 +3212,19 @@
         <v>271699</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>241258</v>
+        <v>244843</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301554</v>
+        <v>302603</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2131937918918664</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1893079274852306</v>
+        <v>0.1921212233193557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2366206520727063</v>
+        <v>0.2374434190408345</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>426</v>
@@ -3233,19 +3233,19 @@
         <v>461828</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>423709</v>
+        <v>423795</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>504817</v>
+        <v>502655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2075187107258482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1903902330376528</v>
+        <v>0.1904288404345225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2268354320196331</v>
+        <v>0.2258641516501189</v>
       </c>
     </row>
     <row r="8">
@@ -3262,19 +3262,19 @@
         <v>179100</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>155845</v>
+        <v>155560</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203686</v>
+        <v>205708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1883179890211278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1638654941797685</v>
+        <v>0.1635663244534917</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.214168521742762</v>
+        <v>0.2162945512348508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -3283,19 +3283,19 @@
         <v>361536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328163</v>
+        <v>328629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392761</v>
+        <v>393575</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2836861134233825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2574997467421483</v>
+        <v>0.2578656268069248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3081875621759163</v>
+        <v>0.3088266069784162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>514</v>
@@ -3304,19 +3304,19 @@
         <v>540636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>498575</v>
+        <v>500009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>578240</v>
+        <v>584540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2429306842544477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2240307670497297</v>
+        <v>0.2246753015107677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2598276804150088</v>
+        <v>0.2626583674556373</v>
       </c>
     </row>
     <row r="9">
@@ -3333,19 +3333,19 @@
         <v>205935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>180932</v>
+        <v>178732</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>234443</v>
+        <v>233029</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2165339515726299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1902443777039822</v>
+        <v>0.1879304980598272</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2465086677528701</v>
+        <v>0.2450218219356488</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>338</v>
@@ -3354,19 +3354,19 @@
         <v>371092</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>338195</v>
+        <v>334599</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>404832</v>
+        <v>405646</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2911846721983077</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2653711866956782</v>
+        <v>0.2625497797974363</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3176596778878421</v>
+        <v>0.3182981713611224</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>527</v>
@@ -3375,19 +3375,19 @@
         <v>577027</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>534766</v>
+        <v>537553</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>619981</v>
+        <v>624006</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2592827953821393</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2402928044665066</v>
+        <v>0.2415452237784227</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2785835332406096</v>
+        <v>0.2803920742117988</v>
       </c>
     </row>
     <row r="10">
@@ -3479,19 +3479,19 @@
         <v>91067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73637</v>
+        <v>70869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111759</v>
+        <v>112129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04686337656214952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03789400115839622</v>
+        <v>0.03646911011384379</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05751165541733975</v>
+        <v>0.05770159749779675</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -3500,19 +3500,19 @@
         <v>56373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41598</v>
+        <v>43341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71198</v>
+        <v>73031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03250771106597374</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02398798936929377</v>
+        <v>0.02499297750947699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04105692940648566</v>
+        <v>0.04211385611444154</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>139</v>
@@ -3521,19 +3521,19 @@
         <v>147440</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>124907</v>
+        <v>126481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>174217</v>
+        <v>175414</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04009370996038713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03396641545524138</v>
+        <v>0.03439441005635323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04737539628667754</v>
+        <v>0.04770090141032572</v>
       </c>
     </row>
     <row r="12">
@@ -3550,19 +3550,19 @@
         <v>229326</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200462</v>
+        <v>198736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>262548</v>
+        <v>258947</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1180118002018327</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1031582172923485</v>
+        <v>0.1022699822964244</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1351076085055915</v>
+        <v>0.1332548989699973</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>136</v>
@@ -3571,19 +3571,19 @@
         <v>145370</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122940</v>
+        <v>121934</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170386</v>
+        <v>170788</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08382859032223992</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07089415814854856</v>
+        <v>0.07031384239831243</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09825404015840715</v>
+        <v>0.09848587074799965</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>351</v>
@@ -3592,19 +3592,19 @@
         <v>374696</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>337338</v>
+        <v>335930</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>414398</v>
+        <v>411622</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1018921062507192</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09173319430039492</v>
+        <v>0.09135025362137973</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.11268844571094</v>
+        <v>0.1119335087351942</v>
       </c>
     </row>
     <row r="13">
@@ -3621,19 +3621,19 @@
         <v>313798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>281909</v>
+        <v>281752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>347326</v>
+        <v>349140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1614810312863736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1450709725468727</v>
+        <v>0.1449901036941207</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1787349688846483</v>
+        <v>0.1796685181970349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -3642,19 +3642,19 @@
         <v>192749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>166337</v>
+        <v>165257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>224229</v>
+        <v>222186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1111501203750133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0959192573410837</v>
+        <v>0.09529652905861377</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1293033691957469</v>
+        <v>0.1281253199646071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>464</v>
@@ -3663,19 +3663,19 @@
         <v>506547</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>463065</v>
+        <v>462812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>551205</v>
+        <v>549486</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1377466048521774</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1259225420770222</v>
+        <v>0.1258536554265724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1498906252261225</v>
+        <v>0.1494230919666112</v>
       </c>
     </row>
     <row r="14">
@@ -3692,19 +3692,19 @@
         <v>567030</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>526043</v>
+        <v>523187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>610765</v>
+        <v>606054</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.291795043651695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2707029073424206</v>
+        <v>0.2692334284502026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3143008650454436</v>
+        <v>0.3118769165817699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>412</v>
@@ -3713,19 +3713,19 @@
         <v>435165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>400526</v>
+        <v>399247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>472012</v>
+        <v>473198</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2509406185021538</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2309659144846188</v>
+        <v>0.2302285305292158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2721891401302735</v>
+        <v>0.2728726962243521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>955</v>
@@ -3734,19 +3734,19 @@
         <v>1002195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>945985</v>
+        <v>946341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1052880</v>
+        <v>1058536</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2725294207836554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2572440693968228</v>
+        <v>0.2573408573296292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2863123564159797</v>
+        <v>0.2878503106791236</v>
       </c>
     </row>
     <row r="15">
@@ -3763,19 +3763,19 @@
         <v>395108</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>359048</v>
+        <v>359716</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>432353</v>
+        <v>433038</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2033237526555434</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1847671526183838</v>
+        <v>0.1851105032119602</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2224900633958532</v>
+        <v>0.2228425105543386</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>429</v>
@@ -3784,19 +3784,19 @@
         <v>461911</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>421322</v>
+        <v>426333</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>499463</v>
+        <v>504278</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2663639525099518</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2429579446605445</v>
+        <v>0.2458475413980048</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.288018866907459</v>
+        <v>0.2907954004052648</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>802</v>
@@ -3805,19 +3805,19 @@
         <v>857019</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>804873</v>
+        <v>803137</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>912791</v>
+        <v>910558</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.233051467865716</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2188711792029086</v>
+        <v>0.2183991036431897</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2482175291539503</v>
+        <v>0.2476104723530204</v>
       </c>
     </row>
     <row r="16">
@@ -3834,19 +3834,19 @@
         <v>346918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>312543</v>
+        <v>314088</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>384662</v>
+        <v>386770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1785249956424057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1608355976268381</v>
+        <v>0.1616304968129618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1979480735909049</v>
+        <v>0.1990326828555927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>408</v>
@@ -3855,19 +3855,19 @@
         <v>442567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>408032</v>
+        <v>407994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>481282</v>
+        <v>481112</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2552090072246675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2352943867459881</v>
+        <v>0.2352726021014524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2775347593916589</v>
+        <v>0.2774365086978453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>739</v>
@@ -3876,19 +3876,19 @@
         <v>789485</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>736229</v>
+        <v>737053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>837846</v>
+        <v>845385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2146866902873449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2002046988745459</v>
+        <v>0.2004286260901017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2278374976679813</v>
+        <v>0.229887642485431</v>
       </c>
     </row>
     <row r="17">
@@ -3980,19 +3980,19 @@
         <v>12652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7125</v>
+        <v>6476</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21748</v>
+        <v>20362</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02652173748332603</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01493440650549431</v>
+        <v>0.01357517547307913</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04558815816898221</v>
+        <v>0.04268278707455024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -4001,19 +4001,19 @@
         <v>7213</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3205</v>
+        <v>3039</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14504</v>
+        <v>13633</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01579412909914029</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007018264783243951</v>
+        <v>0.006655040420438277</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03175969851688094</v>
+        <v>0.02985236221291241</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -4022,19 +4022,19 @@
         <v>19865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13139</v>
+        <v>12292</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30808</v>
+        <v>29804</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02127491678751678</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01407176448923642</v>
+        <v>0.01316371040769019</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03299377177546832</v>
+        <v>0.03191835678091024</v>
       </c>
     </row>
     <row r="19">
@@ -4051,19 +4051,19 @@
         <v>30886</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20376</v>
+        <v>21632</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44466</v>
+        <v>44996</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0647433789212931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04271123440250134</v>
+        <v>0.04534541780105051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0932095568841584</v>
+        <v>0.09431996535436039</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4072,19 +4072,19 @@
         <v>30590</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20037</v>
+        <v>20374</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43233</v>
+        <v>45971</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06698220072460861</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0438736315873383</v>
+        <v>0.04461227162996585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09466678750361437</v>
+        <v>0.100660800064493</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -4093,19 +4093,19 @@
         <v>61476</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46945</v>
+        <v>46818</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80866</v>
+        <v>79625</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06583837569514825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05027583382874392</v>
+        <v>0.05013961392668322</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08660405422537036</v>
+        <v>0.08527460583179548</v>
       </c>
     </row>
     <row r="20">
@@ -4122,19 +4122,19 @@
         <v>64560</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47867</v>
+        <v>51286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81125</v>
+        <v>82626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1353305508402722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1003385979682822</v>
+        <v>0.107505853343821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1700530476187147</v>
+        <v>0.1732011737264563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -4143,19 +4143,19 @@
         <v>61877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46343</v>
+        <v>46876</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79053</v>
+        <v>79633</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1354897714820214</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1014768152623768</v>
+        <v>0.1026422147576634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.173100780266274</v>
+        <v>0.1743694180636616</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -4164,19 +4164,19 @@
         <v>126437</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105285</v>
+        <v>105488</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150170</v>
+        <v>149208</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1354084248759763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1127553044523165</v>
+        <v>0.1129729955848557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1608259443756169</v>
+        <v>0.1597954590787862</v>
       </c>
     </row>
     <row r="21">
@@ -4193,19 +4193,19 @@
         <v>162786</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>142089</v>
+        <v>141717</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>186124</v>
+        <v>187678</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3412314057818496</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2978471056033142</v>
+        <v>0.297066068180258</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3901530420625001</v>
+        <v>0.3934093191007719</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -4214,19 +4214,19 @@
         <v>117969</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>99744</v>
+        <v>100435</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>138853</v>
+        <v>138732</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2583121208916314</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2184066925562354</v>
+        <v>0.2199198120798476</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3040428337373567</v>
+        <v>0.3037781205640221</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>259</v>
@@ -4235,19 +4235,19 @@
         <v>280755</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>250325</v>
+        <v>252638</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>311747</v>
+        <v>309437</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3006759898435633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2680868338238838</v>
+        <v>0.2705638446987265</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3338677413539323</v>
+        <v>0.3313936893823847</v>
       </c>
     </row>
     <row r="22">
@@ -4264,19 +4264,19 @@
         <v>115893</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97166</v>
+        <v>97457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137000</v>
+        <v>136208</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2429334305088856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2036797011707467</v>
+        <v>0.2042896989921938</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2871776469274093</v>
+        <v>0.2855177682130078</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -4285,19 +4285,19 @@
         <v>117754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98143</v>
+        <v>97185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137818</v>
+        <v>137842</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2578427570518602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2149004874437797</v>
+        <v>0.2128027872609065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3017762537681705</v>
+        <v>0.3018273930531274</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>210</v>
@@ -4306,19 +4306,19 @@
         <v>233647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>205789</v>
+        <v>206041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>264157</v>
+        <v>263710</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2502255090658896</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2203904941726529</v>
+        <v>0.2206612463808145</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2829007738302159</v>
+        <v>0.2824223315921385</v>
       </c>
     </row>
     <row r="23">
@@ -4335,19 +4335,19 @@
         <v>90278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72938</v>
+        <v>70787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109238</v>
+        <v>109182</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1892394964643735</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1528927145902044</v>
+        <v>0.1483824694781022</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2289830953003937</v>
+        <v>0.2288673782361081</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>110</v>
@@ -4356,19 +4356,19 @@
         <v>121287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102323</v>
+        <v>103411</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>144681</v>
+        <v>142398</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2655790207507381</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2240524567213203</v>
+        <v>0.2264369377487463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3168025125368848</v>
+        <v>0.3118052683573675</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>190</v>
@@ -4377,19 +4377,19 @@
         <v>211565</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>186549</v>
+        <v>186768</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>240042</v>
+        <v>239320</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2265767837319058</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1997861017171216</v>
+        <v>0.2000208567369154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2570749981257475</v>
+        <v>0.2563016841769405</v>
       </c>
     </row>
     <row r="24">
@@ -4481,19 +4481,19 @@
         <v>173281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147882</v>
+        <v>148697</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>201866</v>
+        <v>204084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05139814641142909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04386427906083875</v>
+        <v>0.04410594617662274</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05987674162625342</v>
+        <v>0.06053464801559255</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>102</v>
@@ -4502,19 +4502,19 @@
         <v>104994</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>84935</v>
+        <v>86851</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126304</v>
+        <v>128016</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03029927723846554</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02451049723118251</v>
+        <v>0.02506333246142442</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03644865960160489</v>
+        <v>0.03694291703489293</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>263</v>
@@ -4523,19 +4523,19 @@
         <v>278276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249533</v>
+        <v>245857</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>315885</v>
+        <v>316479</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04070383263240204</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03649958586363147</v>
+        <v>0.03596192803045382</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04620501953315968</v>
+        <v>0.04629189272677112</v>
       </c>
     </row>
     <row r="26">
@@ -4552,19 +4552,19 @@
         <v>410865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>371831</v>
+        <v>373668</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>447441</v>
+        <v>447015</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1218695077480138</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1102911615576738</v>
+        <v>0.1108361669856432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1327184970233372</v>
+        <v>0.132592143203545</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>263</v>
@@ -4573,19 +4573,19 @@
         <v>283062</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>249459</v>
+        <v>250891</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>318402</v>
+        <v>317868</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08168614249848177</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07198875224325532</v>
+        <v>0.07240214257438259</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09188436703861096</v>
+        <v>0.09173025174997011</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>645</v>
@@ -4594,19 +4594,19 @@
         <v>693928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>648897</v>
+        <v>639303</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>750302</v>
+        <v>744224</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1015018987945247</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09491518349610277</v>
+        <v>0.0935118423620762</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1097478332794192</v>
+        <v>0.108858743346074</v>
       </c>
     </row>
     <row r="27">
@@ -4623,19 +4623,19 @@
         <v>534031</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>486828</v>
+        <v>489335</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>578697</v>
+        <v>576876</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1584025033831762</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1444013155449168</v>
+        <v>0.1451449416555264</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1716510894891407</v>
+        <v>0.1711110134541323</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>341</v>
@@ -4644,19 +4644,19 @@
         <v>376210</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>341350</v>
+        <v>338460</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>413465</v>
+        <v>415355</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1085666147732729</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09850660304027116</v>
+        <v>0.09767273791134891</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1193177563376528</v>
+        <v>0.1198632006613438</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>839</v>
@@ -4665,19 +4665,19 @@
         <v>910241</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>850348</v>
+        <v>853239</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>965307</v>
+        <v>964880</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1331423519560139</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1243816730588552</v>
+        <v>0.1248045262075402</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1411968975099123</v>
+        <v>0.1411344288281383</v>
       </c>
     </row>
     <row r="28">
@@ -4694,19 +4694,19 @@
         <v>919945</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>865812</v>
+        <v>867811</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>979662</v>
+        <v>973552</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2728709443463273</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.256814283467328</v>
+        <v>0.2574071159402708</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2905839579549833</v>
+        <v>0.2887716075109171</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>773</v>
@@ -4715,19 +4715,19 @@
         <v>824832</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>775887</v>
+        <v>772317</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>875597</v>
+        <v>874547</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2380298829652596</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2239055178884723</v>
+        <v>0.2228750798611521</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2526795727632756</v>
+        <v>0.2523767024521582</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1640</v>
@@ -4736,19 +4736,19 @@
         <v>1744777</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1672755</v>
+        <v>1680098</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1818079</v>
+        <v>1826258</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2552111712206218</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2446764358443635</v>
+        <v>0.2457505237553801</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.265933147925957</v>
+        <v>0.2671295298274372</v>
       </c>
     </row>
     <row r="29">
@@ -4765,19 +4765,19 @@
         <v>690101</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>640306</v>
+        <v>642102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>738730</v>
+        <v>738947</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2046955179812268</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1899252956328229</v>
+        <v>0.19045801519715</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2191195655914143</v>
+        <v>0.2191837694135011</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>877</v>
@@ -4786,19 +4786,19 @@
         <v>941201</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>889669</v>
+        <v>889227</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>993731</v>
+        <v>993262</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2716115418611104</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2567406469198983</v>
+        <v>0.2566130741236055</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2867708561200368</v>
+        <v>0.2866354978325238</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1526</v>
@@ -4807,19 +4807,19 @@
         <v>1631302</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1559474</v>
+        <v>1561294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1703758</v>
+        <v>1705439</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2386130208743842</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2281065617795939</v>
+        <v>0.2283728840708991</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2492113360696578</v>
+        <v>0.2494571113891105</v>
       </c>
     </row>
     <row r="30">
@@ -4836,19 +4836,19 @@
         <v>643131</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>594295</v>
+        <v>597050</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>688537</v>
+        <v>694828</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1907633801298267</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1762777314049364</v>
+        <v>0.1770950124124704</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.204231545087896</v>
+        <v>0.2060975594611056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>856</v>
@@ -4857,19 +4857,19 @@
         <v>934946</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>884224</v>
+        <v>878888</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>991724</v>
+        <v>989344</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2698065406634098</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2551692231188302</v>
+        <v>0.2536293461044764</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2861916670866211</v>
+        <v>0.285504845556209</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1456</v>
@@ -4878,19 +4878,19 @@
         <v>1578077</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1511175</v>
+        <v>1511608</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1658146</v>
+        <v>1653806</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2308277245220533</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2210419027551556</v>
+        <v>0.2211052103231781</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2425395533279132</v>
+        <v>0.2419047592274272</v>
       </c>
     </row>
     <row r="31">
@@ -5221,19 +5221,19 @@
         <v>29218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19808</v>
+        <v>20020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41019</v>
+        <v>42628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03960276376800497</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02684816895552745</v>
+        <v>0.02713584310200198</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05559837893175051</v>
+        <v>0.05777981504119512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -5242,19 +5242,19 @@
         <v>25684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16277</v>
+        <v>17137</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37612</v>
+        <v>36730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02625545292340515</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01663969145676299</v>
+        <v>0.01751864934315108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0384494637057875</v>
+        <v>0.03754756322581844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -5263,19 +5263,19 @@
         <v>54901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41526</v>
+        <v>42180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71042</v>
+        <v>71524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03199399110931106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02419960973908185</v>
+        <v>0.02458046292560983</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04140020130906046</v>
+        <v>0.04168095476718878</v>
       </c>
     </row>
     <row r="5">
@@ -5292,19 +5292,19 @@
         <v>82294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66716</v>
+        <v>66012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100041</v>
+        <v>99507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1115435100116003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09042955533251658</v>
+        <v>0.08947484330941671</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1355991004250575</v>
+        <v>0.1348758423406515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -5313,19 +5313,19 @@
         <v>49467</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36891</v>
+        <v>36307</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64118</v>
+        <v>64246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.050568182509766</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03771204399856734</v>
+        <v>0.03711508176031675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06554572246505876</v>
+        <v>0.06567634958887283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -5334,19 +5334,19 @@
         <v>131760</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109507</v>
+        <v>111969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155295</v>
+        <v>153657</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0767838936250102</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06381578467289761</v>
+        <v>0.06525032760464787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09049867868123805</v>
+        <v>0.089544142133025</v>
       </c>
     </row>
     <row r="6">
@@ -5363,19 +5363,19 @@
         <v>156337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>137408</v>
+        <v>137483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>179673</v>
+        <v>179195</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2119048178317535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1862473488156755</v>
+        <v>0.1863485144127353</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2435353755401315</v>
+        <v>0.2428872585373528</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -5384,19 +5384,19 @@
         <v>104239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>86387</v>
+        <v>85016</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>124741</v>
+        <v>127093</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1065605193451821</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08831084883248215</v>
+        <v>0.08690874481716356</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.12751855036762</v>
+        <v>0.129923622231339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>256</v>
@@ -5405,19 +5405,19 @@
         <v>260577</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>230812</v>
+        <v>230814</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>291794</v>
+        <v>292880</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1518522104259546</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1345069435787696</v>
+        <v>0.134508068079939</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1700444807349085</v>
+        <v>0.1706769954305095</v>
       </c>
     </row>
     <row r="7">
@@ -5434,19 +5434,19 @@
         <v>197899</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>173640</v>
+        <v>174993</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222143</v>
+        <v>222834</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.268239194962918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2353570609672836</v>
+        <v>0.2371916164015903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3011002956051581</v>
+        <v>0.3020369884083305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>245</v>
@@ -5455,19 +5455,19 @@
         <v>268928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>242823</v>
+        <v>240926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300408</v>
+        <v>298862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2749164534787726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2482305434637899</v>
+        <v>0.2462910711742979</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3070972765935623</v>
+        <v>0.3055167434840235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>443</v>
@@ -5476,19 +5476,19 @@
         <v>466827</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>431534</v>
+        <v>427448</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>506754</v>
+        <v>503587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.272045635273029</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2514782797479655</v>
+        <v>0.2490970588561358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2953130276497455</v>
+        <v>0.2934678969787095</v>
       </c>
     </row>
     <row r="8">
@@ -5505,19 +5505,19 @@
         <v>141810</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>123618</v>
+        <v>122777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165405</v>
+        <v>161572</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1922141781149842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1675566906820904</v>
+        <v>0.1664159347518855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2241961545994563</v>
+        <v>0.2190008180817374</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>246</v>
@@ -5526,19 +5526,19 @@
         <v>277875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251840</v>
+        <v>247988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308297</v>
+        <v>310562</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2840630404888991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2574483165739851</v>
+        <v>0.2535101010061126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3151623040532473</v>
+        <v>0.3174772714406708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>390</v>
@@ -5547,19 +5547,19 @@
         <v>419685</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>383218</v>
+        <v>383993</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>456785</v>
+        <v>459679</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2445735725203025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2233219012056684</v>
+        <v>0.2237736274018183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2661937250443829</v>
+        <v>0.2678802717922865</v>
       </c>
     </row>
     <row r="9">
@@ -5576,19 +5576,19 @@
         <v>130213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>109386</v>
+        <v>113327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>148960</v>
+        <v>154103</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.176495535310739</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1482659402554745</v>
+        <v>0.153607607663862</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2019055239846587</v>
+        <v>0.20887647409705</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>221</v>
@@ -5597,19 +5597,19 @@
         <v>252024</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>225967</v>
+        <v>225271</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>280498</v>
+        <v>281462</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.257636351253975</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.230998914269853</v>
+        <v>0.2302874978477641</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2867446207038825</v>
+        <v>0.2877299442318071</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>352</v>
@@ -5618,19 +5618,19 @@
         <v>382238</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>347731</v>
+        <v>349034</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>419776</v>
+        <v>419474</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2227506970463927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2026419061572323</v>
+        <v>0.2034009943930752</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2446261953756546</v>
+        <v>0.2444504756027337</v>
       </c>
     </row>
     <row r="10">
@@ -5722,19 +5722,19 @@
         <v>110455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90544</v>
+        <v>90405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134661</v>
+        <v>133207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05379945589523336</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04410138721664102</v>
+        <v>0.04403385856136692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06558978566819386</v>
+        <v>0.06488161527311695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5743,19 +5743,19 @@
         <v>38896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28133</v>
+        <v>27670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52710</v>
+        <v>51184</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01964856106175969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01421135406041896</v>
+        <v>0.01397775865210232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02662662452714929</v>
+        <v>0.02585596703680553</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>139</v>
@@ -5764,19 +5764,19 @@
         <v>149351</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>125841</v>
+        <v>125018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>176557</v>
+        <v>176042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03703516896630304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03120523628369697</v>
+        <v>0.03100125036079172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0437814976632154</v>
+        <v>0.04365386700309144</v>
       </c>
     </row>
     <row r="12">
@@ -5793,19 +5793,19 @@
         <v>195821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171662</v>
+        <v>169277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>225818</v>
+        <v>224927</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09537911212870531</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08361174243592126</v>
+        <v>0.08245006593731651</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.109989483686609</v>
+        <v>0.1095559432938796</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -5814,19 +5814,19 @@
         <v>104834</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85054</v>
+        <v>84455</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128328</v>
+        <v>125247</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05295725618295662</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04296520968170432</v>
+        <v>0.04266260198355264</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06482531396016694</v>
+        <v>0.0632689297945417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>279</v>
@@ -5835,19 +5835,19 @@
         <v>300655</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>266168</v>
+        <v>264244</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333646</v>
+        <v>333021</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07455470420030132</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06600275934287657</v>
+        <v>0.06552555836195556</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08273548449992932</v>
+        <v>0.08258052770753981</v>
       </c>
     </row>
     <row r="13">
@@ -5864,19 +5864,19 @@
         <v>375246</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>342319</v>
+        <v>338943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>417615</v>
+        <v>410208</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1827719025204685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1667339854322172</v>
+        <v>0.1650897626172763</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2034085258843094</v>
+        <v>0.1998007959219453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -5885,19 +5885,19 @@
         <v>201039</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>175485</v>
+        <v>176400</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230511</v>
+        <v>229987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1015555138197644</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08864684894149548</v>
+        <v>0.08910933370082474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1164436980366599</v>
+        <v>0.1161785160131661</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>549</v>
@@ -5906,19 +5906,19 @@
         <v>576285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>532595</v>
+        <v>531724</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>620338</v>
+        <v>623230</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1429036984763506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1320697288058736</v>
+        <v>0.1318537861319724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1538277932109881</v>
+        <v>0.1545448649530693</v>
       </c>
     </row>
     <row r="14">
@@ -5935,19 +5935,19 @@
         <v>653953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>613019</v>
+        <v>613812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>699806</v>
+        <v>695833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3185225664732427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2985844629811319</v>
+        <v>0.2989709991066268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3408562610217852</v>
+        <v>0.3389210493905495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>645</v>
@@ -5956,19 +5956,19 @@
         <v>668207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>628350</v>
+        <v>625796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>712073</v>
+        <v>712155</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3375472889588941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3174130490600771</v>
+        <v>0.3161229904958242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.359706154319917</v>
+        <v>0.3597476098485695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1269</v>
@@ -5977,19 +5977,19 @@
         <v>1322161</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1259463</v>
+        <v>1264580</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1385086</v>
+        <v>1386070</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3278615869600535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3123142182509975</v>
+        <v>0.3135830126540526</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3434655336608547</v>
+        <v>0.3437093989350517</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>414762</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>378034</v>
+        <v>377327</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>450137</v>
+        <v>453088</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2020190632233086</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1841298076428247</v>
+        <v>0.1837857760520157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2192494594914384</v>
+        <v>0.2206867576712653</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>517</v>
@@ -6027,19 +6027,19 @@
         <v>535832</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>494753</v>
+        <v>497303</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>576767</v>
+        <v>577192</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2706772720936989</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2499262615785941</v>
+        <v>0.2512145678668129</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2913556756083071</v>
+        <v>0.2915706992010295</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>913</v>
@@ -6048,19 +6048,19 @@
         <v>950594</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>895011</v>
+        <v>899176</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1004131</v>
+        <v>1009463</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2357225992255767</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2219395996735985</v>
+        <v>0.2229724164697512</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2489983863448507</v>
+        <v>0.2503206070532656</v>
       </c>
     </row>
     <row r="16">
@@ -6077,19 +6077,19 @@
         <v>302846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>269838</v>
+        <v>270503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>338038</v>
+        <v>337949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1475078997590416</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1314304589015182</v>
+        <v>0.1317547551246093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1646491391283803</v>
+        <v>0.1646055814286455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>406</v>
@@ -6098,19 +6098,19 @@
         <v>430788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>393586</v>
+        <v>397838</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>468259</v>
+        <v>471798</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2176141078829264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1988213660444319</v>
+        <v>0.2009693733459874</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2365424786517404</v>
+        <v>0.2383303370480683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>683</v>
@@ -6119,19 +6119,19 @@
         <v>733634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>681373</v>
+        <v>684895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>785713</v>
+        <v>782972</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1819222421714148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1689629086188726</v>
+        <v>0.1698363512374618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1948366020762819</v>
+        <v>0.1941568821429569</v>
       </c>
     </row>
     <row r="17">
@@ -6223,19 +6223,19 @@
         <v>21895</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13295</v>
+        <v>13532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34131</v>
+        <v>32928</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04019174600277641</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02440520174965051</v>
+        <v>0.02484021855705963</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06265267780667358</v>
+        <v>0.06044472600495338</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -6244,19 +6244,19 @@
         <v>13066</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7296</v>
+        <v>7176</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23528</v>
+        <v>22111</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02387258967446086</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01333136615167343</v>
+        <v>0.01311177147880759</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04298811487154331</v>
+        <v>0.04039895778511744</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -6265,19 +6265,19 @@
         <v>34961</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23302</v>
+        <v>24056</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47894</v>
+        <v>48892</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03201313228956926</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02133765496297776</v>
+        <v>0.02202781164613009</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04385584261997384</v>
+        <v>0.04476911343611216</v>
       </c>
     </row>
     <row r="19">
@@ -6294,19 +6294,19 @@
         <v>39734</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28032</v>
+        <v>28717</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54872</v>
+        <v>56879</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07293701701957477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05145651420179007</v>
+        <v>0.05271407307521755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1007262991750159</v>
+        <v>0.1044100344153747</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -6315,19 +6315,19 @@
         <v>37535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27158</v>
+        <v>26784</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51778</v>
+        <v>52228</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06857936507883935</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04962002972203155</v>
+        <v>0.0489376411624436</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09460378267505648</v>
+        <v>0.09542671469854988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -6336,19 +6336,19 @@
         <v>77268</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60464</v>
+        <v>60271</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95838</v>
+        <v>97378</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07075310804763582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05536539221336764</v>
+        <v>0.05518893058792826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08775750081261043</v>
+        <v>0.08916718077503928</v>
       </c>
     </row>
     <row r="20">
@@ -6365,19 +6365,19 @@
         <v>76296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61092</v>
+        <v>60890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96493</v>
+        <v>95778</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1400529836148139</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.112143294319785</v>
+        <v>0.1117723898381499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1771267103195907</v>
+        <v>0.1758137510294965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -6386,19 +6386,19 @@
         <v>55314</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41476</v>
+        <v>41781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72176</v>
+        <v>70080</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.101064383049578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07578123483092185</v>
+        <v>0.0763388603886655</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.131873026036914</v>
+        <v>0.1280423960786114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>124</v>
@@ -6407,19 +6407,19 @@
         <v>131610</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>109655</v>
+        <v>111204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>152112</v>
+        <v>156248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1205132049138577</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1004089239265661</v>
+        <v>0.1018272936014377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1392863173039855</v>
+        <v>0.1430735645708808</v>
       </c>
     </row>
     <row r="21">
@@ -6436,19 +6436,19 @@
         <v>176401</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>154125</v>
+        <v>152381</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>198833</v>
+        <v>197247</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3238096426955558</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2829192122457808</v>
+        <v>0.2797178158892428</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3649859384288033</v>
+        <v>0.3620752832124403</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>151</v>
@@ -6457,19 +6457,19 @@
         <v>158056</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>138221</v>
+        <v>137309</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>181697</v>
+        <v>181084</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2887850732215271</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2525430415213649</v>
+        <v>0.2508767507707198</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3319795412512903</v>
+        <v>0.330858643398031</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>317</v>
@@ -6478,19 +6478,19 @@
         <v>334458</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>306650</v>
+        <v>301532</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>365369</v>
+        <v>363721</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3062565034010666</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2807935618974466</v>
+        <v>0.2761072443651717</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3345612245983664</v>
+        <v>0.3330525087361519</v>
       </c>
     </row>
     <row r="22">
@@ -6507,19 +6507,19 @@
         <v>130187</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109905</v>
+        <v>112401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>150016</v>
+        <v>152919</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2389765578344936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2017471064533052</v>
+        <v>0.2063286238224034</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2753761854454232</v>
+        <v>0.2807039632461225</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -6528,19 +6528,19 @@
         <v>145783</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>124921</v>
+        <v>125622</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166851</v>
+        <v>166750</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2663611522076416</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2282424697173061</v>
+        <v>0.229524581290431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3048538776483342</v>
+        <v>0.3046696374830231</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>263</v>
@@ -6549,19 +6549,19 @@
         <v>275970</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>247115</v>
+        <v>244724</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>304388</v>
+        <v>304557</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2527007978972127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2262784129192899</v>
+        <v>0.2240889711544589</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2787223898103076</v>
+        <v>0.2788767104266944</v>
       </c>
     </row>
     <row r="23">
@@ -6578,19 +6578,19 @@
         <v>100255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>82715</v>
+        <v>83317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>120961</v>
+        <v>119986</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1840320528327854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1518348455130376</v>
+        <v>0.1529404863202767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2220406917228088</v>
+        <v>0.22025184437796</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -6599,19 +6599,19 @@
         <v>137561</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>116236</v>
+        <v>119446</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>159616</v>
+        <v>158634</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2513374367679532</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2123750102920431</v>
+        <v>0.2182394268039238</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2916338499928521</v>
+        <v>0.2898407874911775</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>219</v>
@@ -6620,19 +6620,19 @@
         <v>237816</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>211613</v>
+        <v>211143</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>269138</v>
+        <v>268655</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2177632534506579</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.193770273717077</v>
+        <v>0.1933399793606123</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2464447498406377</v>
+        <v>0.2460027031647135</v>
       </c>
     </row>
     <row r="24">
@@ -6724,19 +6724,19 @@
         <v>161568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>135136</v>
+        <v>137337</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187697</v>
+        <v>187948</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.048437051180481</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04051301888729692</v>
+        <v>0.04117290511184851</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05627043612636814</v>
+        <v>0.05634562463000824</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -6745,19 +6745,19 @@
         <v>77646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61289</v>
+        <v>61292</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95959</v>
+        <v>95029</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02215199228501155</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01748545192806699</v>
+        <v>0.01748639593456055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02737675379219839</v>
+        <v>0.02711140790047024</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>221</v>
@@ -6766,19 +6766,19 @@
         <v>239213</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>212618</v>
+        <v>209569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>268130</v>
+        <v>271859</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0349688630399743</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03108104965109416</v>
+        <v>0.0306353545478649</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03919601483859058</v>
+        <v>0.03974111136792195</v>
       </c>
     </row>
     <row r="26">
@@ -6795,19 +6795,19 @@
         <v>317849</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>283684</v>
+        <v>283891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>351767</v>
+        <v>354567</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09528914364025848</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08504667760580714</v>
+        <v>0.08510873616368841</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1054577000060799</v>
+        <v>0.1062970596960615</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>180</v>
@@ -6816,19 +6816,19 @@
         <v>191835</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>165164</v>
+        <v>166349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220208</v>
+        <v>220756</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05472985595259927</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0471206913775208</v>
+        <v>0.04745886265511081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06282441580014682</v>
+        <v>0.06298082892971059</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>478</v>
@@ -6837,19 +6837,19 @@
         <v>509684</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>465535</v>
+        <v>468631</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>558381</v>
+        <v>558720</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.074506990570155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06805324530378078</v>
+        <v>0.0685058019164158</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08162573775050747</v>
+        <v>0.0816752743977012</v>
       </c>
     </row>
     <row r="27">
@@ -6866,19 +6866,19 @@
         <v>607880</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>562530</v>
+        <v>564246</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>654155</v>
+        <v>654915</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1822387303746358</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1686432285121098</v>
+        <v>0.1691577366071824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1961117659605114</v>
+        <v>0.1963396462502819</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>344</v>
@@ -6887,19 +6887,19 @@
         <v>360592</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>327208</v>
+        <v>325264</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>400786</v>
+        <v>398074</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1028756299092018</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09335122254289388</v>
+        <v>0.09279647249921255</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1143428040346177</v>
+        <v>0.1135690196165317</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>929</v>
@@ -6908,19 +6908,19 @@
         <v>968472</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>910830</v>
+        <v>914280</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1027465</v>
+        <v>1027883</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1415739111428009</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1331477034102111</v>
+        <v>0.1336520288296317</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1501977239048796</v>
+        <v>0.1502588282361168</v>
       </c>
     </row>
     <row r="28">
@@ -6937,19 +6937,19 @@
         <v>1028253</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>978145</v>
+        <v>976841</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1081689</v>
+        <v>1087967</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3082643888863744</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2932422325006699</v>
+        <v>0.2928511086984819</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3242839983429044</v>
+        <v>0.3261661815467914</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1041</v>
@@ -6958,19 +6958,19 @@
         <v>1095192</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1041656</v>
+        <v>1039043</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1158279</v>
+        <v>1154984</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.312454102259668</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2971805982386098</v>
+        <v>0.2964350781866203</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3304525048721075</v>
+        <v>0.3295126416496339</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2029</v>
@@ -6979,19 +6979,19 @@
         <v>2123445</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2047005</v>
+        <v>2047439</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2203147</v>
+        <v>2204680</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3104111540197804</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2992369839972305</v>
+        <v>0.299300362868839</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3220622042219734</v>
+        <v>0.3222862400786524</v>
       </c>
     </row>
     <row r="29">
@@ -7008,19 +7008,19 @@
         <v>686759</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>640775</v>
+        <v>639858</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>735690</v>
+        <v>733077</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2058862548770883</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1921005047180099</v>
+        <v>0.1918256190140459</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2205556257858313</v>
+        <v>0.2197723426537679</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>906</v>
@@ -7029,19 +7029,19 @@
         <v>959491</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>911927</v>
+        <v>903889</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1018915</v>
+        <v>1012122</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2737390437377847</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2601693436835127</v>
+        <v>0.2578760163243924</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2906924689097942</v>
+        <v>0.2887545650773667</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1566</v>
@@ -7050,19 +7050,19 @@
         <v>1646249</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1573958</v>
+        <v>1571709</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1719634</v>
+        <v>1718693</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2406533113203763</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2300856125006988</v>
+        <v>0.2297567638458239</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2513808732653977</v>
+        <v>0.2512433556664617</v>
       </c>
     </row>
     <row r="30">
@@ -7079,19 +7079,19 @@
         <v>533314</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>488145</v>
+        <v>495614</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>578167</v>
+        <v>579288</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.159884431041162</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1463430794893748</v>
+        <v>0.1485822142611283</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1733309775570979</v>
+        <v>0.1736670753962773</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>756</v>
@@ -7100,19 +7100,19 @@
         <v>820373</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>767816</v>
+        <v>766822</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>873334</v>
+        <v>869179</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2340493758557346</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2190550230699914</v>
+        <v>0.2187714708561647</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2491589281018207</v>
+        <v>0.2479734350925589</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1254</v>
@@ -7121,19 +7121,19 @@
         <v>1353687</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1275407</v>
+        <v>1280833</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1412344</v>
+        <v>1424687</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1978857699069131</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1864425811496577</v>
+        <v>0.1872356973452648</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.206460367761423</v>
+        <v>0.2082647305334643</v>
       </c>
     </row>
     <row r="31">
